--- a/垫付.xlsx
+++ b/垫付.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A65F76-64A6-40D5-ACFA-41ACA2960756}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AF29D5-84D0-41D4-B7D7-8A488B995B50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{81DA277B-796D-473F-9675-900F1B7D3A80}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>垫付</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,11 +55,22 @@
     <t>孙东杓dongpyobot反光手幅</t>
   </si>
   <si>
-    <t>共455.50sgd [2301.91rmb]（paypal余额51.38刀[353.41rmb] +垫付2056.06） paypal手续费107.56rmb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>包通关运费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>共455.50sgd 分两次转账
+第一笔【66.86sgd】 paypal扣除余额51.38刀
+实际汇率：66.86sgd = 49刀 = 336.87rmb
+手续费：2.38刀 = 10.37rmb
+第二笔【388.64sgd】 paypal扣除2056.06rmb
+实际汇率：388.64sgd = 1958.16rmb
+手续费：97.9rmb
+手续费共：108.27rmb</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>详情见下👇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -114,12 +125,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -435,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5C48D3-EEF2-400D-9814-4AEBF5426AE5}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -448,7 +465,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -459,9 +476,6 @@
       <c r="B2">
         <v>194.12</v>
       </c>
-      <c r="C2">
-        <v>7.21</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -470,9 +484,6 @@
       <c r="B3">
         <v>291.29000000000002</v>
       </c>
-      <c r="C3">
-        <v>7.21</v>
-      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -481,9 +492,6 @@
       <c r="B4">
         <v>1235.29</v>
       </c>
-      <c r="C4">
-        <v>7.21</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -492,9 +500,6 @@
       <c r="B5">
         <v>1729.41</v>
       </c>
-      <c r="C5">
-        <v>7.21</v>
-      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -503,22 +508,16 @@
       <c r="B6">
         <v>2056.06</v>
       </c>
-      <c r="C6">
-        <v>7.21</v>
-      </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>523.79999999999995</v>
-      </c>
-      <c r="C7">
-        <v>7.21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -526,8 +525,14 @@
         <v>6029.97</v>
       </c>
     </row>
+    <row r="10" spans="1:4" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/垫付.xlsx
+++ b/垫付.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AF29D5-84D0-41D4-B7D7-8A488B995B50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D546328-1013-4A89-AF8F-BF0B62503374}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{81DA277B-796D-473F-9675-900F1B7D3A80}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
   <si>
     <t>垫付</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -71,6 +71,34 @@
   </si>
   <si>
     <t>详情见下👇</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金秦禹 pokapoka手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金东贤代收代付</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄 @flyhigh_jw 一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>林煐岷 YOU ARE MY PACA 三代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金珉周 DOUBLE SUADE 反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>田雄 Fluffy Wing 1st CHEERING KIT 反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -125,7 +153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -137,6 +165,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -452,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5C48D3-EEF2-400D-9814-4AEBF5426AE5}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -470,63 +501,147 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>226.24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>113.14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>1412.46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>856.44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>258.2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>223.01</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B8">
         <v>194.12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B9">
         <v>291.29000000000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B10">
         <v>1235.29</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B11">
         <v>1729.41</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B12">
         <v>2056.06</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B13">
         <v>523.79999999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="1">
-        <v>6029.97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="2" t="s">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>9119.4599999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="2" t="s">
         <v>7</v>
       </c>
     </row>

--- a/垫付.xlsx
+++ b/垫付.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D546328-1013-4A89-AF8F-BF0B62503374}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DA3D2A-4FEB-4FF9-BA03-A7A0E08329CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{81DA277B-796D-473F-9675-900F1B7D3A80}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>垫付</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -99,6 +99,10 @@
   </si>
   <si>
     <t>田雄 Fluffy Wing 1st CHEERING KIT 反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1 韩胜宇 BLUE BLOOD 反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -483,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5C48D3-EEF2-400D-9814-4AEBF5426AE5}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -645,6 +649,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>613.66999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/垫付.xlsx
+++ b/垫付.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DA3D2A-4FEB-4FF9-BA03-A7A0E08329CD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DDAE71-1FD9-4144-B8FB-C56F93359FF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{81DA277B-796D-473F-9675-900F1B7D3A80}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>垫付</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,6 +103,44 @@
   </si>
   <si>
     <t>X1 韩胜宇 BLUE BLOOD 反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X1 李垠尚 饭制🍑手幅</t>
+  </si>
+  <si>
+    <t>具正模饭制chierry反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宇硕金曜汉曹承衍 Elysian 反光手幅</t>
+  </si>
+  <si>
+    <t>金宇硕金曜汉曹承衍 Elysian 反光手幅
+@peachyhoonz
+定金:122 销量:9 手续费:6.59
+共:1091.41</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹承衍 Still You 一代反光手幅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paypal SGD $160 TO:estherwxw@gmail.com</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>paypal：wonderblast1122@gmail.com
+7 set = 140usd x 1.055 paypal fee 
+Total: 147.7usd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹承衍 Still You 一代反光手幅
+@stillyouSY
+定金:142 销量:7 手续费:5.96
+共:988.94</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -487,16 +525,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5C48D3-EEF2-400D-9814-4AEBF5426AE5}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.88671875" customWidth="1"/>
-    <col min="4" max="4" width="88.88671875" customWidth="1"/>
+    <col min="4" max="4" width="42.21875" customWidth="1"/>
+    <col min="5" max="5" width="42.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,12 +688,80 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
       <c r="B19">
         <v>613.66999999999996</v>
+      </c>
+      <c r="C19">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>153.49</v>
+      </c>
+      <c r="C20">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>100.4</v>
+      </c>
+      <c r="C21">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>1124.77</v>
+      </c>
+      <c r="C24">
+        <v>8.15</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25">
+        <v>1038.32</v>
+      </c>
+      <c r="C25">
+        <v>8.15</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/垫付.xlsx
+++ b/垫付.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DDAE71-1FD9-4144-B8FB-C56F93359FF3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9E2F26-EF23-4331-B491-DB40AEAD25F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{81DA277B-796D-473F-9675-900F1B7D3A80}"/>
+    <workbookView minimized="1" xWindow="5880" yWindow="804" windowWidth="16500" windowHeight="11904" xr2:uid="{81DA277B-796D-473F-9675-900F1B7D3A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>孙东杓dongpyobot反光手幅</t>
-  </si>
-  <si>
     <t>包通关运费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -141,6 +138,10 @@
 @stillyouSY
 定金:142 销量:7 手续费:5.96
 共:988.94</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙东杓dongpyobot反光手幅</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -527,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5C48D3-EEF2-400D-9814-4AEBF5426AE5}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -545,68 +546,68 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>226.24</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>113.14</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>1412.46</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>856.44</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>258.2</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>223.01</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -617,7 +618,7 @@
         <v>194.12</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,7 +629,7 @@
         <v>291.29000000000002</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -639,7 +640,7 @@
         <v>1235.29</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -650,32 +651,32 @@
         <v>1729.41</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>2056.06</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
         <v>523.79999999999995</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -685,12 +686,12 @@
     </row>
     <row r="16" spans="1:4" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D16" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>613.66999999999996</v>
@@ -699,12 +700,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>153.49</v>
@@ -713,12 +714,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>100.4</v>
@@ -727,12 +728,12 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24">
         <v>1124.77</v>
@@ -741,15 +742,15 @@
         <v>8.15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>1038.32</v>
@@ -758,10 +759,10 @@
         <v>8.15</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/垫付.xlsx
+++ b/垫付.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\milly\eclipse-workspace\404\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9E2F26-EF23-4331-B491-DB40AEAD25F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF2ACB2-E97D-48D6-84BD-64E7E1B96071}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5880" yWindow="804" windowWidth="16500" windowHeight="11904" xr2:uid="{81DA277B-796D-473F-9675-900F1B7D3A80}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{81DA277B-796D-473F-9675-900F1B7D3A80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>垫付</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -53,21 +53,6 @@
   </si>
   <si>
     <t>包通关运费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>共455.50sgd 分两次转账
-第一笔【66.86sgd】 paypal扣除余额51.38刀
-实际汇率：66.86sgd = 49刀 = 336.87rmb
-手续费：2.38刀 = 10.37rmb
-第二笔【388.64sgd】 paypal扣除2056.06rmb
-实际汇率：388.64sgd = 1958.16rmb
-手续费：97.9rmb
-手续费共：108.27rmb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>详情见下👇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -526,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A5C48D3-EEF2-400D-9814-4AEBF5426AE5}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -539,78 +524,78 @@
     <col min="5" max="5" width="42.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>226.24</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="B3">
         <v>113.14</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1412.46</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>856.44</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6">
         <v>258.2</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>223.01</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -618,10 +603,10 @@
         <v>194.12</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -629,10 +614,10 @@
         <v>291.29000000000002</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -640,10 +625,10 @@
         <v>1235.29</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -651,24 +636,21 @@
         <v>1729.41</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>2056.06</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -676,93 +658,88 @@
         <v>523.79999999999995</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>9119.4599999999991</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="165" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="2" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>613.66999999999996</v>
+      </c>
+      <c r="C18">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
-        <v>613.66999999999996</v>
+        <v>153.49</v>
       </c>
       <c r="C19">
         <v>8.8000000000000007</v>
       </c>
       <c r="D19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
-        <v>153.49</v>
+        <v>100.4</v>
       </c>
       <c r="C20">
         <v>8.8000000000000007</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>1124.77</v>
+      </c>
+      <c r="C23">
+        <v>8.15</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21">
-        <v>100.4</v>
-      </c>
-      <c r="C21">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="73.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
       <c r="B24">
-        <v>1124.77</v>
+        <v>1038.32</v>
       </c>
       <c r="C24">
         <v>8.15</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="97.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="E24" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B25">
-        <v>1038.32</v>
-      </c>
-      <c r="C25">
-        <v>8.15</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
